--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品出口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品出口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,813 +543,817 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.22039</v>
+        <v>1.87934</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>0.44058</v>
+        <v>0.06195</v>
       </c>
       <c r="E2" t="n">
-        <v>0.20691</v>
+        <v>0.24347</v>
       </c>
       <c r="F2" t="n">
-        <v>1.82432</v>
+        <v>0.93244</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7517</v>
+        <v>2.41519</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24532</v>
+        <v>3.07929</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9654700000000001</v>
+        <v>0.59395</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3966</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.76051</v>
-      </c>
+        <v>2.28969</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>9.511609999999999</v>
+        <v>16.72543</v>
       </c>
       <c r="M2" t="n">
-        <v>8.294129999999999</v>
+        <v>16.0708</v>
       </c>
       <c r="N2" t="n">
-        <v>4.61732</v>
+        <v>6.25453</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25454</v>
+        <v>3.43903</v>
       </c>
       <c r="P2" t="n">
-        <v>4.7598</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.30001</v>
-      </c>
+        <v>6.58861</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.46145</v>
+        <v>0.2182</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>0.0907</v>
+        <v>0.33964</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1299</v>
+        <v>9.39269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.87934</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>2.7269</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7755</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.06195</v>
+        <v>0.0786</v>
       </c>
       <c r="E3" t="n">
-        <v>0.24347</v>
+        <v>0.2046</v>
       </c>
       <c r="F3" t="n">
-        <v>0.93244</v>
+        <v>3.3922</v>
       </c>
       <c r="G3" t="n">
-        <v>2.41519</v>
+        <v>3.965</v>
       </c>
       <c r="H3" t="n">
-        <v>3.07929</v>
+        <v>4.6449</v>
       </c>
       <c r="I3" t="n">
-        <v>0.59395</v>
+        <v>1.6497</v>
       </c>
       <c r="J3" t="n">
-        <v>2.28969</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>3.9195</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5552</v>
+      </c>
       <c r="L3" t="n">
-        <v>16.72543</v>
+        <v>19.8107</v>
       </c>
       <c r="M3" t="n">
-        <v>16.0708</v>
+        <v>17.0036</v>
       </c>
       <c r="N3" t="n">
-        <v>6.25453</v>
+        <v>6.6548</v>
       </c>
       <c r="O3" t="n">
-        <v>3.43903</v>
+        <v>10.0441</v>
       </c>
       <c r="P3" t="n">
-        <v>6.58861</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>7.3439</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.067</v>
+      </c>
       <c r="R3" t="n">
-        <v>0.2182</v>
+        <v>1.1303</v>
       </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>0.33964</v>
-      </c>
+      <c r="T3" t="n">
+        <v>0.5334</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>9.39269</v>
+        <v>2.1039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.7269</v>
+        <v>4.53652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7755</v>
+        <v>0.27576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0786</v>
+        <v>0.27717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2046</v>
+        <v>0.69931</v>
       </c>
       <c r="F4" t="n">
-        <v>3.3922</v>
+        <v>5.89405</v>
       </c>
       <c r="G4" t="n">
-        <v>3.965</v>
+        <v>4.24405</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6449</v>
+        <v>4.78911</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6497</v>
+        <v>1.83433</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9195</v>
+        <v>10.25799</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5552</v>
+        <v>1.00471</v>
       </c>
       <c r="L4" t="n">
-        <v>19.8107</v>
+        <v>17.53176</v>
       </c>
       <c r="M4" t="n">
-        <v>17.0036</v>
+        <v>13.13547</v>
       </c>
       <c r="N4" t="n">
-        <v>6.6548</v>
+        <v>4.08428</v>
       </c>
       <c r="O4" t="n">
-        <v>10.0441</v>
+        <v>16.67196</v>
       </c>
       <c r="P4" t="n">
-        <v>7.3439</v>
+        <v>5.46985</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.067</v>
+        <v>0.05659</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1303</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>0.28065</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.70427</v>
+      </c>
       <c r="T4" t="n">
-        <v>0.5334</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
+        <v>0.64759</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2</v>
+      </c>
       <c r="V4" t="n">
-        <v>2.1039</v>
+        <v>5.58274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.53652</v>
+        <v>2.88119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27576</v>
+        <v>0.19466</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27717</v>
+        <v>0.97995</v>
       </c>
       <c r="E5" t="n">
-        <v>0.69931</v>
+        <v>0.81915</v>
       </c>
       <c r="F5" t="n">
-        <v>5.89405</v>
+        <v>0.59196</v>
       </c>
       <c r="G5" t="n">
-        <v>4.24405</v>
+        <v>4.21019</v>
       </c>
       <c r="H5" t="n">
-        <v>4.78911</v>
+        <v>3.63688</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83433</v>
+        <v>0.06732</v>
       </c>
       <c r="J5" t="n">
-        <v>10.25799</v>
+        <v>2.2879</v>
       </c>
       <c r="K5" t="n">
-        <v>1.00471</v>
+        <v>0.18913</v>
       </c>
       <c r="L5" t="n">
-        <v>17.53176</v>
+        <v>19.97264</v>
       </c>
       <c r="M5" t="n">
-        <v>13.13547</v>
+        <v>16.83045</v>
       </c>
       <c r="N5" t="n">
-        <v>4.08428</v>
+        <v>0.89718</v>
       </c>
       <c r="O5" t="n">
-        <v>16.67196</v>
+        <v>7.056</v>
       </c>
       <c r="P5" t="n">
-        <v>5.46985</v>
+        <v>3.78481</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05659</v>
+        <v>0.94709</v>
       </c>
       <c r="R5" t="n">
-        <v>0.28065</v>
+        <v>0.45497</v>
       </c>
       <c r="S5" t="n">
-        <v>0.70427</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.64759</v>
-      </c>
+        <v>2.54186</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.2</v>
+        <v>1.44826</v>
       </c>
       <c r="V5" t="n">
-        <v>5.58274</v>
+        <v>6.69356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.88119</v>
+        <v>6.0628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19466</v>
+        <v>0.10423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97995</v>
+        <v>1.61702</v>
       </c>
       <c r="E6" t="n">
-        <v>0.81915</v>
+        <v>0.83439</v>
       </c>
       <c r="F6" t="n">
-        <v>0.59196</v>
+        <v>2.71283</v>
       </c>
       <c r="G6" t="n">
-        <v>4.21019</v>
+        <v>5.74729</v>
       </c>
       <c r="H6" t="n">
-        <v>3.63688</v>
+        <v>34.73899</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06732</v>
+        <v>1.8653</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2879</v>
+        <v>2.54694</v>
       </c>
       <c r="K6" t="n">
-        <v>0.18913</v>
+        <v>0.1895</v>
       </c>
       <c r="L6" t="n">
-        <v>19.97264</v>
+        <v>16.86212</v>
       </c>
       <c r="M6" t="n">
-        <v>16.83045</v>
+        <v>14.59682</v>
       </c>
       <c r="N6" t="n">
-        <v>0.89718</v>
+        <v>2.70352</v>
       </c>
       <c r="O6" t="n">
-        <v>7.056</v>
+        <v>8.450939999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>3.78481</v>
+        <v>4.79064</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.94709</v>
+        <v>1.1893</v>
       </c>
       <c r="R6" t="n">
-        <v>0.45497</v>
+        <v>0.01009</v>
       </c>
       <c r="S6" t="n">
-        <v>2.54186</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
+        <v>1.69636</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.14201</v>
+      </c>
       <c r="U6" t="n">
-        <v>1.44826</v>
+        <v>29.58283</v>
       </c>
       <c r="V6" t="n">
-        <v>6.69356</v>
+        <v>23.53315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.0628</v>
+        <v>6.4177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10423</v>
+        <v>0.541</v>
       </c>
       <c r="D7" t="n">
-        <v>1.61702</v>
+        <v>0.7157</v>
       </c>
       <c r="E7" t="n">
-        <v>0.83439</v>
+        <v>0.5696</v>
       </c>
       <c r="F7" t="n">
-        <v>2.71283</v>
+        <v>34.974</v>
       </c>
       <c r="G7" t="n">
-        <v>5.74729</v>
+        <v>4.9188</v>
       </c>
       <c r="H7" t="n">
-        <v>34.73899</v>
+        <v>4.3466</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8653</v>
+        <v>1.0504</v>
       </c>
       <c r="J7" t="n">
-        <v>2.54694</v>
+        <v>2.9396</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1895</v>
+        <v>0.7228</v>
       </c>
       <c r="L7" t="n">
-        <v>16.86212</v>
+        <v>13.2082</v>
       </c>
       <c r="M7" t="n">
-        <v>14.59682</v>
+        <v>10.805</v>
       </c>
       <c r="N7" t="n">
-        <v>2.70352</v>
+        <v>3.4632</v>
       </c>
       <c r="O7" t="n">
-        <v>8.450939999999999</v>
+        <v>8.882400000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>4.79064</v>
+        <v>6.384</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.1893</v>
+        <v>0.478</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01009</v>
+        <v>0.0473</v>
       </c>
       <c r="S7" t="n">
-        <v>1.69636</v>
+        <v>2.4505</v>
       </c>
       <c r="T7" t="n">
-        <v>0.14201</v>
+        <v>32.3849</v>
       </c>
       <c r="U7" t="n">
-        <v>29.58283</v>
+        <v>2.3143</v>
       </c>
       <c r="V7" t="n">
-        <v>23.53315</v>
+        <v>8.2478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.4177</v>
+        <v>6.6083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.541</v>
+        <v>0.4297</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7157</v>
+        <v>1.0343</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5696</v>
+        <v>0.9778</v>
       </c>
       <c r="F8" t="n">
-        <v>34.974</v>
+        <v>8.8626</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9188</v>
+        <v>6.1279</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3466</v>
+        <v>63.7801</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0504</v>
+        <v>0.3984</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9396</v>
+        <v>4.199</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7228</v>
+        <v>1.486</v>
       </c>
       <c r="L8" t="n">
-        <v>13.2082</v>
+        <v>8.764699999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>10.805</v>
+        <v>6.1016</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4632</v>
+        <v>4.4691</v>
       </c>
       <c r="O8" t="n">
-        <v>8.882400000000001</v>
+        <v>11.2521</v>
       </c>
       <c r="P8" t="n">
-        <v>6.384</v>
+        <v>7.0136</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.478</v>
+        <v>1.0223</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0473</v>
+        <v>0.3495</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4505</v>
+        <v>2.4274</v>
       </c>
       <c r="T8" t="n">
-        <v>32.3849</v>
+        <v>0.252</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3143</v>
+        <v>55.3233</v>
       </c>
       <c r="V8" t="n">
-        <v>8.2478</v>
+        <v>2.422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.6083</v>
+        <v>10.351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4297</v>
+        <v>0.334</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0343</v>
+        <v>0.526</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9778</v>
+        <v>1.666</v>
       </c>
       <c r="F9" t="n">
-        <v>8.8626</v>
+        <v>2.468</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1279</v>
+        <v>15.758</v>
       </c>
       <c r="H9" t="n">
-        <v>63.7801</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3984</v>
-      </c>
+        <v>15.224</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>4.199</v>
+        <v>4.492</v>
       </c>
       <c r="K9" t="n">
-        <v>1.486</v>
+        <v>4.884</v>
       </c>
       <c r="L9" t="n">
-        <v>8.764699999999999</v>
+        <v>13.82</v>
       </c>
       <c r="M9" t="n">
-        <v>6.1016</v>
+        <v>7.906</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4691</v>
+        <v>0.778</v>
       </c>
       <c r="O9" t="n">
-        <v>11.2521</v>
+        <v>7.885</v>
       </c>
       <c r="P9" t="n">
-        <v>7.0136</v>
+        <v>3.062</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.0223</v>
+        <v>0.202</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3495</v>
+        <v>0.318</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4274</v>
+        <v>2.274</v>
       </c>
       <c r="T9" t="n">
-        <v>0.252</v>
+        <v>0.106</v>
       </c>
       <c r="U9" t="n">
-        <v>55.3233</v>
+        <v>8.616</v>
       </c>
       <c r="V9" t="n">
-        <v>2.422</v>
+        <v>3.405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.351</v>
+        <v>2.7211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334</v>
+        <v>0.0558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.526</v>
+        <v>0.0843</v>
       </c>
       <c r="E10" t="n">
-        <v>1.666</v>
+        <v>1.7121</v>
       </c>
       <c r="F10" t="n">
-        <v>2.468</v>
+        <v>27.8891</v>
       </c>
       <c r="G10" t="n">
-        <v>15.758</v>
+        <v>3.7995</v>
       </c>
       <c r="H10" t="n">
-        <v>15.224</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>21.6299</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8496</v>
+      </c>
       <c r="J10" t="n">
-        <v>4.492</v>
+        <v>3.4649</v>
       </c>
       <c r="K10" t="n">
-        <v>4.884</v>
+        <v>0.2793</v>
       </c>
       <c r="L10" t="n">
-        <v>13.82</v>
+        <v>4.0908</v>
       </c>
       <c r="M10" t="n">
-        <v>7.906</v>
+        <v>3.3957</v>
       </c>
       <c r="N10" t="n">
-        <v>0.778</v>
+        <v>0.8502999999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>7.885</v>
+        <v>11.2695</v>
       </c>
       <c r="P10" t="n">
-        <v>3.062</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.202</v>
-      </c>
+        <v>6.4391</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.318</v>
+        <v>8.304399999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>2.274</v>
+        <v>5.5826</v>
       </c>
       <c r="T10" t="n">
-        <v>0.106</v>
+        <v>17.854</v>
       </c>
       <c r="U10" t="n">
-        <v>8.616</v>
+        <v>21.2024</v>
       </c>
       <c r="V10" t="n">
-        <v>3.405</v>
+        <v>2.6996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.7211</v>
+        <v>4.5587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0558</v>
+        <v>0.2111</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0843</v>
+        <v>2.8514</v>
       </c>
       <c r="E11" t="n">
-        <v>1.7121</v>
+        <v>1.5977</v>
       </c>
       <c r="F11" t="n">
-        <v>27.8891</v>
+        <v>2.2137</v>
       </c>
       <c r="G11" t="n">
-        <v>3.7995</v>
+        <v>5.112</v>
       </c>
       <c r="H11" t="n">
-        <v>21.6299</v>
+        <v>24.858</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8496</v>
+        <v>0.8367</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4649</v>
+        <v>6.4591</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2793</v>
+        <v>0.5792</v>
       </c>
       <c r="L11" t="n">
-        <v>4.0908</v>
+        <v>13.8951</v>
       </c>
       <c r="M11" t="n">
-        <v>3.3957</v>
+        <v>11.6149</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8502999999999999</v>
+        <v>1.8069</v>
       </c>
       <c r="O11" t="n">
-        <v>11.2695</v>
+        <v>15.9141</v>
       </c>
       <c r="P11" t="n">
-        <v>6.4391</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+        <v>14.8417</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2979</v>
+      </c>
       <c r="R11" t="n">
-        <v>8.304399999999999</v>
+        <v>0.229</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5826</v>
+        <v>12.7903</v>
       </c>
       <c r="T11" t="n">
-        <v>17.854</v>
+        <v>0.5369</v>
       </c>
       <c r="U11" t="n">
-        <v>21.2024</v>
+        <v>9.5906</v>
       </c>
       <c r="V11" t="n">
-        <v>2.6996</v>
+        <v>5.5493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.5587</v>
+        <v>4.8881</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2111</v>
+        <v>4.0546</v>
       </c>
       <c r="D12" t="n">
-        <v>2.8514</v>
+        <v>7.994</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5977</v>
+        <v>1.4019</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2137</v>
+        <v>1.3036</v>
       </c>
       <c r="G12" t="n">
-        <v>5.112</v>
+        <v>10.1567</v>
       </c>
       <c r="H12" t="n">
-        <v>24.858</v>
+        <v>26.0688</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8367</v>
+        <v>0.3829</v>
       </c>
       <c r="J12" t="n">
-        <v>6.4591</v>
+        <v>3.4391</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5792</v>
+        <v>0.0546</v>
       </c>
       <c r="L12" t="n">
-        <v>13.8951</v>
+        <v>3.8732</v>
       </c>
       <c r="M12" t="n">
-        <v>11.6149</v>
+        <v>3.2718</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8069</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>15.9141</v>
+        <v>7.356</v>
       </c>
       <c r="P12" t="n">
-        <v>14.8417</v>
+        <v>25.3528</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2979</v>
+        <v>6.1073</v>
       </c>
       <c r="R12" t="n">
-        <v>0.229</v>
+        <v>0.2652</v>
       </c>
       <c r="S12" t="n">
-        <v>12.7903</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.5369</v>
-      </c>
+        <v>22.2075</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>9.5906</v>
+        <v>25.7347</v>
       </c>
       <c r="V12" t="n">
-        <v>5.5493</v>
+        <v>2.3996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.8881</v>
+        <v>2.4119</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0546</v>
+        <v>0.4037</v>
       </c>
       <c r="D13" t="n">
-        <v>7.994</v>
+        <v>0.7964</v>
       </c>
       <c r="E13" t="n">
-        <v>1.4019</v>
+        <v>1.2201</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3036</v>
+        <v>1.4664</v>
       </c>
       <c r="G13" t="n">
-        <v>10.1567</v>
+        <v>7.6655</v>
       </c>
       <c r="H13" t="n">
-        <v>26.0688</v>
+        <v>20.7918</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3829</v>
+        <v>0.2777</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4391</v>
+        <v>3.7476</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0546</v>
+        <v>0.052</v>
       </c>
       <c r="L13" t="n">
-        <v>3.8732</v>
+        <v>3.2482</v>
       </c>
       <c r="M13" t="n">
-        <v>3.2718</v>
+        <v>1.9193</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06909999999999999</v>
+        <v>3.99</v>
       </c>
       <c r="O13" t="n">
-        <v>7.356</v>
+        <v>8.372400000000001</v>
       </c>
       <c r="P13" t="n">
-        <v>25.3528</v>
+        <v>30.4883</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.1073</v>
+        <v>0.208</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2652</v>
+        <v>0.1645</v>
       </c>
       <c r="S13" t="n">
-        <v>22.2075</v>
+        <v>23.7104</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>25.7347</v>
+        <v>19.9496</v>
       </c>
       <c r="V13" t="n">
-        <v>2.3996</v>
+        <v>1.9377</v>
       </c>
     </row>
   </sheetData>
